--- a/data/localization-2-camera.xlsx
+++ b/data/localization-2-camera.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annih\Documents\GitHub\DiddyBorg_Sensor_Fusion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091AF122-AFC3-4B2B-AA33-6E7879319192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF74B6-0B51-4570-8E8A-EC1321251788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8730" yWindow="2280" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="16" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28566,7 +28566,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -28972,7 +28972,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29112,7 +29112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1285"/>
   <sheetViews>
-    <sheetView topLeftCell="A1223" workbookViewId="0">
+    <sheetView topLeftCell="A1160" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J1260"/>
     </sheetView>
   </sheetViews>
